--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1393101.084915032</v>
+        <v>1468630.754579837</v>
       </c>
     </row>
     <row r="7">
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>105.6338289490843</v>
+        <v>165.1689607921873</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>94.15011005139367</v>
       </c>
       <c r="I4" t="n">
-        <v>25.31590541686235</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>366.4752704092854</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>270.0180256261397</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>163.142351405544</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>94.07078171629857</v>
       </c>
       <c r="T8" t="n">
-        <v>14.48628953405844</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>74.53436060286468</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>65.51651982872603</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.2174302415107</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4552226741785</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1771,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.764421144160691</v>
+        <v>45.75333626975168</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2005,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.32125544715163</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>127.0683103596603</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>59.652474744964</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>118.8209292153263</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>130.027053208336</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>89.31984007417549</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2731,7 +2733,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>57.64843562452468</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>153.7693996663704</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3044,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>105.5303094322326</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>152.6276470398227</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3281,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>174.3062600431772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>135.5535868730193</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>107.1697933608021</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>128.4285848360769</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>95.03056730070881</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>139.8923097339041</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>285.9888589191009</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1315.683675137274</v>
+        <v>1529.2861479534</v>
       </c>
       <c r="C2" t="n">
-        <v>1315.683675137274</v>
+        <v>1529.2861479534</v>
       </c>
       <c r="D2" t="n">
-        <v>957.4179765305237</v>
+        <v>1171.020449346649</v>
       </c>
       <c r="E2" t="n">
-        <v>571.6297239322794</v>
+        <v>785.2321967484049</v>
       </c>
       <c r="F2" t="n">
-        <v>160.6438191426718</v>
+        <v>374.2462919587974</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2092.422847177208</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.422847177208</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y2" t="n">
-        <v>1702.283515201396</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,16 +4418,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>477.9194859165262</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>477.9194859165262</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359519</v>
+        <v>477.9194859165262</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51460345355875</v>
+        <v>477.9194859165262</v>
       </c>
       <c r="F4" t="n">
-        <v>79.51460345355875</v>
+        <v>331.0295384186159</v>
       </c>
       <c r="G4" t="n">
-        <v>79.51460345355875</v>
+        <v>331.0295384186159</v>
       </c>
       <c r="H4" t="n">
-        <v>79.51460345355875</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>477.9194859165262</v>
       </c>
     </row>
     <row r="5">
@@ -4565,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,25 +4591,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1995.909162857192</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y5" t="n">
         <v>1995.909162857192</v>
@@ -4644,22 +4646,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>563.3387302614404</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>702.55736257324</v>
+        <v>563.3387302614404</v>
       </c>
       <c r="T7" t="n">
-        <v>702.55736257324</v>
+        <v>563.3387302614404</v>
       </c>
       <c r="U7" t="n">
-        <v>702.55736257324</v>
+        <v>563.3387302614404</v>
       </c>
       <c r="V7" t="n">
-        <v>702.55736257324</v>
+        <v>563.3387302614404</v>
       </c>
       <c r="W7" t="n">
-        <v>702.55736257324</v>
+        <v>563.3387302614404</v>
       </c>
       <c r="X7" t="n">
-        <v>702.55736257324</v>
+        <v>563.3387302614404</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>563.3387302614404</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2547.099409916091</v>
       </c>
       <c r="T8" t="n">
-        <v>2627.487785857747</v>
+        <v>2547.099409916091</v>
       </c>
       <c r="U8" t="n">
-        <v>2373.726000495839</v>
+        <v>2293.337624554182</v>
       </c>
       <c r="V8" t="n">
-        <v>2373.726000495839</v>
+        <v>1962.274737210612</v>
       </c>
       <c r="W8" t="n">
-        <v>2373.726000495839</v>
+        <v>1609.506081940498</v>
       </c>
       <c r="X8" t="n">
-        <v>2000.260242234759</v>
+        <v>1609.506081940498</v>
       </c>
       <c r="Y8" t="n">
-        <v>1610.120910258947</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1212846776635</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>120.1212846776635</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>120.1212846776635</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>120.1212846776635</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>120.1212846776635</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5030,61 +5032,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845924</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977054</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641087</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247867</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383449</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>420.322614832458</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>208.7516828383384</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X13" t="n">
-        <v>208.7516828383384</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.7516828383384</v>
+        <v>1298.996260473455</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5291,19 +5293,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011339</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N15" t="n">
-        <v>1771.104817265285</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.0071030383442</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="C16" t="n">
-        <v>675.0071030383442</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="D16" t="n">
-        <v>675.0071030383442</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684849</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5431,7 +5433,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383442</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W16" t="n">
-        <v>675.0071030383442</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X16" t="n">
-        <v>675.0071030383442</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.0071030383442</v>
+        <v>720.4504516500522</v>
       </c>
     </row>
     <row r="17">
@@ -5510,16 +5512,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5531,13 +5533,13 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5589,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5598,16 +5600,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>523.5986531011363</v>
+        <v>834.5937666237584</v>
       </c>
       <c r="C19" t="n">
-        <v>523.5986531011363</v>
+        <v>834.5937666237584</v>
       </c>
       <c r="D19" t="n">
-        <v>373.4820136888005</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E19" t="n">
-        <v>225.5689201064074</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>933.2366688293934</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>933.2366688293934</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X19" t="n">
-        <v>705.247117931376</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y19" t="n">
-        <v>705.247117931376</v>
+        <v>1016.242231453998</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>3138.955990222747</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M21" t="n">
-        <v>3446.276123502708</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N21" t="n">
-        <v>3776.138751166741</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O21" t="n">
-        <v>4253.421048821322</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>644.700260475621</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>475.7640775477141</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>325.6474381353784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1275.130855347408</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>1047.141304449391</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>826.3487253058607</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,13 +6007,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2471.066311049162</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2881.956579893675</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3128.721707800139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3436.0418410801</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>3765.904468744133</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4045.44453396283</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698577</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>675.7175987609741</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C25" t="n">
-        <v>506.7814158330672</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D25" t="n">
-        <v>356.6647764207315</v>
+        <v>515.5693341162774</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>367.6562405338843</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6178,19 +6180,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.499100520942</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>1078.158642734744</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y25" t="n">
-        <v>857.3660635912138</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,49 +6211,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6418,16 +6420,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>1498.916270557902</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y28" t="n">
-        <v>1322.84934122136</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6454,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6473,40 +6475,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,28 +6530,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4171.233660752714</v>
+        <v>3686.322319899659</v>
       </c>
       <c r="C31" t="n">
-        <v>4171.233660752714</v>
+        <v>3517.386136971752</v>
       </c>
       <c r="D31" t="n">
-        <v>4171.233660752714</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E31" t="n">
-        <v>4023.320567170321</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F31" t="n">
-        <v>3876.430619672411</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746784</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431055</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436452</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042135</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576117</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S31" t="n">
-        <v>4749.779469576117</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T31" t="n">
-        <v>4749.779469576117</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U31" t="n">
-        <v>4460.650830789675</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="V31" t="n">
-        <v>4460.650830789675</v>
+        <v>4606.170084808407</v>
       </c>
       <c r="W31" t="n">
-        <v>4171.233660752714</v>
+        <v>4316.752914771446</v>
       </c>
       <c r="X31" t="n">
-        <v>4171.233660752714</v>
+        <v>4088.763363873429</v>
       </c>
       <c r="Y31" t="n">
-        <v>4171.233660752714</v>
+        <v>3867.970784729899</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>465.7659634441654</v>
+        <v>3628.091576844583</v>
       </c>
       <c r="C34" t="n">
-        <v>465.7659634441654</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D34" t="n">
-        <v>465.7659634441654</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E34" t="n">
-        <v>465.7659634441654</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F34" t="n">
-        <v>465.7659634441654</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V34" t="n">
-        <v>755.183133481126</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="W34" t="n">
-        <v>465.7659634441654</v>
+        <v>3628.091576844583</v>
       </c>
       <c r="X34" t="n">
-        <v>465.7659634441654</v>
+        <v>3628.091576844583</v>
       </c>
       <c r="Y34" t="n">
-        <v>465.7659634441654</v>
+        <v>3628.091576844583</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6931,7 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6938,7 +6940,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -7017,25 +7019,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4503.13917884751</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C37" t="n">
-        <v>4334.202995919603</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>4860.854573014292</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W37" t="n">
-        <v>4860.854573014292</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X37" t="n">
-        <v>4860.854573014292</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y37" t="n">
-        <v>4684.78764367775</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,16 +7159,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7175,7 +7177,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7269,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1141.200876391121</v>
+        <v>4144.425579450937</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632137</v>
+        <v>4144.425579450937</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>4144.425579450937</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="X40" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="Y40" t="n">
-        <v>1278.123691414372</v>
+        <v>4326.074044281177</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7403,7 +7405,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7421,16 +7423,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1089.278254829645</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C43" t="n">
-        <v>920.3420719017386</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D43" t="n">
-        <v>770.2254324894028</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E43" t="n">
         <v>674.2349604684848</v>
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,25 +7633,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7667,7 +7669,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7688,10 +7690,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7728,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4037.196409009357</v>
+        <v>3916.549172546828</v>
       </c>
       <c r="C46" t="n">
-        <v>4037.196409009357</v>
+        <v>3775.243809179248</v>
       </c>
       <c r="D46" t="n">
-        <v>4037.196409009357</v>
+        <v>3775.243809179248</v>
       </c>
       <c r="E46" t="n">
-        <v>3889.283315426964</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="F46" t="n">
-        <v>3889.283315426964</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746785</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294728</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I46" t="n">
         <v>3459.155393916676</v>
@@ -7831,25 +7833,25 @@
         <v>4749.779469576118</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.85945949167</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T46" t="n">
-        <v>4326.074044281177</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U46" t="n">
-        <v>4037.196409009357</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="V46" t="n">
-        <v>4037.196409009357</v>
+        <v>4205.966342583789</v>
       </c>
       <c r="W46" t="n">
-        <v>4037.196409009357</v>
+        <v>3916.549172546828</v>
       </c>
       <c r="X46" t="n">
-        <v>4037.196409009357</v>
+        <v>3916.549172546828</v>
       </c>
       <c r="Y46" t="n">
-        <v>4037.196409009357</v>
+        <v>3916.549172546828</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,10 +8309,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305135</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>73.53204524670002</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>199.7396287231154</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.03744927814591</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>85.30006332127834</v>
       </c>
       <c r="M42" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,13 +11387,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>23.61454994042657</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>77.06777566241254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23659,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>145.6695415024085</v>
+        <v>100.6806263768175</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23893,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.2942175710607</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>18.35273766327093</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>86.78148790160517</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>26.6001188076049</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,19 +24420,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>95.6826021807012</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>56.10120794875576</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368768</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>12.7241687970072</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24892,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>60.96325903114499</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>133.8953512967683</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.27839330891754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>39.2641692857671</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>51.40339534586045</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>51.40339534586036</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>27.35451136472369</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0.2484934794763944</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.1042799108</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799108</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>940305.1042799108</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.418698365</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="I2" t="n">
         <v>449683.4186983653</v>
-      </c>
-      <c r="I2" t="n">
-        <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="K2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="M2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="O2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983653</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26436,7 +26438,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26476,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,19 +26487,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-366360.8073925152</v>
+        <v>-366360.8073925154</v>
       </c>
       <c r="C6" t="n">
         <v>223607.071822029</v>
       </c>
       <c r="D6" t="n">
-        <v>223607.0718220292</v>
+        <v>223607.0718220291</v>
       </c>
       <c r="E6" t="n">
-        <v>-189638.5513141186</v>
+        <v>-189638.5513141184</v>
       </c>
       <c r="F6" t="n">
-        <v>335521.4851627783</v>
+        <v>335521.4851627778</v>
       </c>
       <c r="G6" t="n">
-        <v>335521.4851627779</v>
+        <v>335521.4851627778</v>
       </c>
       <c r="H6" t="n">
-        <v>335521.4851627779</v>
+        <v>335521.4851627778</v>
       </c>
       <c r="I6" t="n">
         <v>335521.4851627779</v>
@@ -26546,10 +26548,10 @@
         <v>159098.265970185</v>
       </c>
       <c r="K6" t="n">
-        <v>335521.4851627778</v>
+        <v>335521.4851627779</v>
       </c>
       <c r="L6" t="n">
-        <v>335521.4851627778</v>
+        <v>335521.485162778</v>
       </c>
       <c r="M6" t="n">
         <v>200720.4699289407</v>
@@ -26561,7 +26563,7 @@
         <v>335521.4851627779</v>
       </c>
       <c r="P6" t="n">
-        <v>335521.4851627781</v>
+        <v>335521.4851627779</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26753,16 +26755,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26796,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>308.1503410717107</v>
+        <v>248.6152092286077</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>62.02077879040148</v>
       </c>
       <c r="I4" t="n">
-        <v>109.6497163754759</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>3.255830269183662</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>116.2199130299139</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.806844538052008</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>49.00318754447486</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>80.34493109267297</v>
       </c>
       <c r="T8" t="n">
-        <v>201.9620308235993</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>105.2976195790726</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>83.09895318948632</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31837,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004665</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541597</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507422</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,19 +35728,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>355.8957474878082</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315247</v>
@@ -35747,7 +35749,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35966,7 +35968,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35978,7 +35980,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330526</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36443,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37394,19 +37396,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37637,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>334.5577682773026</v>
       </c>
       <c r="M42" t="n">
-        <v>490.4480787240536</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
@@ -37877,10 +37879,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38105,13 +38107,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1468630.754579837</v>
+        <v>1461613.739688126</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>237.9332843063845</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>165.1689607921873</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>14.52687838733165</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.15011005139367</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>293.9557741331911</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>270.0180256261397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>6.90848140332574</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>163.142351405544</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>94.07078171629857</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>197.9240804051659</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74.53436060286468</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14.46389722690867</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.2174302415107</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>8.525532102719421</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>45.75333626975168</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>12.32125544715163</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>27.71082088042269</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>118.8209292153263</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>216.3688193949613</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>89.31984007417549</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>190.6405752120378</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>57.64843562452468</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>174.7430637258771</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>152.6276470398227</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>107.1697933608021</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>5.562624396424693</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>128.4285848360769</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>139.8923097339041</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1529.2861479534</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1529.2861479534</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1171.020449346649</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>785.2321967484049</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>374.2462919587974</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1915.885988017521</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1915.885988017521</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,13 +4427,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.9194859165262</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C4" t="n">
-        <v>477.9194859165262</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D4" t="n">
-        <v>477.9194859165262</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E4" t="n">
-        <v>477.9194859165262</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F4" t="n">
-        <v>331.0295384186159</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>331.0295384186159</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
         <v>99.5995062532301</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.9194859165262</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1635.28076286629</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1249.492510268046</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="Y5" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.546461473041</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>563.3387302614404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>394.4025473335336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511404</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>264.3261428644633</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>106.5777702969935</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>563.3387302614404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>563.3387302614404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>563.3387302614404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>563.3387302614404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>563.3387302614404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>563.3387302614404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>563.3387302614404</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2547.099409916091</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2547.099409916091</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2293.337624554182</v>
+        <v>2047.384933294377</v>
       </c>
       <c r="V8" t="n">
-        <v>1962.274737210612</v>
+        <v>1716.322045950807</v>
       </c>
       <c r="W8" t="n">
-        <v>1609.506081940498</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X8" t="n">
-        <v>1609.506081940498</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y8" t="n">
-        <v>1609.506081940498</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648867</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>105.8287400488913</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>105.8287400488913</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>105.8287400488913</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>105.8287400488913</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>105.8287400488913</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>1298.996260473455</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W13" t="n">
-        <v>1298.996260473455</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X13" t="n">
-        <v>1298.996260473455</v>
+        <v>326.6213191924214</v>
       </c>
       <c r="Y13" t="n">
-        <v>1298.996260473455</v>
+        <v>105.8287400488913</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5363,16 +5363,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2317.834075963124</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>720.4504516500522</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>720.4504516500522</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>720.4504516500522</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>720.4504516500522</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>720.4504516500522</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>720.4504516500522</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5512,37 +5512,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5600,22 +5600,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>834.5937666237584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>834.5937666237584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>1244.231782352015</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>1016.242231453998</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.242231453998</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5734,43 +5734,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5837,16 +5837,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>294.1440025502359</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>125.207819622329</v>
       </c>
       <c r="D22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>475.7924673804756</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,7 +5989,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>665.6859735286132</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C25" t="n">
-        <v>665.6859735286132</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D25" t="n">
-        <v>515.5693341162774</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>367.6562405338843</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6180,19 +6180,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1280.361907532689</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>1025.677419326802</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>1025.677419326802</v>
       </c>
       <c r="X25" t="n">
-        <v>665.6859735286132</v>
+        <v>797.6878684287846</v>
       </c>
       <c r="Y25" t="n">
-        <v>665.6859735286132</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="26">
@@ -6223,10 +6223,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514085</v>
@@ -6250,10 +6250,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>506.0324822735073</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C28" t="n">
-        <v>506.0324822735073</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>506.0324822735073</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150548</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X28" t="n">
-        <v>726.8250614170374</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.0324822735073</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="29">
@@ -6454,22 +6454,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6487,7 +6487,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3686.322319899659</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C31" t="n">
-        <v>3517.386136971752</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916677</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916677</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014293</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>4606.170084808407</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>4316.752914771446</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>4088.763363873429</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y31" t="n">
-        <v>3867.970784729899</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3628.091576844583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1322.408125380249</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281177</v>
+        <v>1098.622710169755</v>
       </c>
       <c r="U34" t="n">
-        <v>4036.945405494735</v>
+        <v>809.4940713833126</v>
       </c>
       <c r="V34" t="n">
-        <v>3782.260917288848</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W34" t="n">
-        <v>3628.091576844583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X34" t="n">
-        <v>3628.091576844583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y34" t="n">
-        <v>3628.091576844583</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,22 +6925,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,13 +6955,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>1336.117678709276</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>1046.700508672316</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>818.7109577742983</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7156,19 +7156,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7183,7 +7183,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4144.425579450937</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="C40" t="n">
-        <v>4144.425579450937</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="D40" t="n">
-        <v>4144.425579450937</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="E40" t="n">
-        <v>4036.173262924875</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.283315426964</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.85945949167</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>4326.074044281177</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>4326.074044281177</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V40" t="n">
-        <v>4326.074044281177</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W40" t="n">
-        <v>4326.074044281177</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X40" t="n">
-        <v>4326.074044281177</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="Y40" t="n">
-        <v>4326.074044281177</v>
+        <v>102.8359039819269</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,19 +7423,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>1270.926719659885</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>1270.926719659885</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3916.549172546828</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3775.243809179248</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3775.243809179248</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>4749.779469576118</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>4460.650830789676</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>4205.966342583789</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>3916.549172546828</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>3916.549172546828</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>3916.549172546828</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>85.30006332127834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.61454994042657</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>157.9680363606582</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>100.6806263768175</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>136.2942175710607</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>82.98990566424403</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>120.9046521377897</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>26.6001188076049</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24420,19 +24420,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>69.86853300361605</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>56.10120794875576</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24654,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>30.90698584635149</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>90.96703739368768</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>26.93116351641913</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24894,7 +24894,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>23.17774625772614</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.8953512967683</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>39.2641692857671</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>160.9309440669529</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.40339534586045</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>30.12558851170027</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>27.35451136472369</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>940305.1042799108</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>940305.1042799108</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="16">
@@ -26322,22 +26322,22 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="G2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="H2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="I2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>449683.4186983652</v>
-      </c>
-      <c r="I2" t="n">
-        <v>449683.4186983653</v>
-      </c>
-      <c r="J2" t="n">
-        <v>449683.4186983653</v>
       </c>
       <c r="K2" t="n">
         <v>449683.4186983653</v>
@@ -26346,16 +26346,16 @@
         <v>449683.4186983653</v>
       </c>
       <c r="M2" t="n">
+        <v>449683.4186983654</v>
+      </c>
+      <c r="N2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="N2" t="n">
-        <v>449683.4186983653</v>
-      </c>
       <c r="O2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983654</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983654</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26447,16 +26447,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26487,28 +26487,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-366360.8073925154</v>
+        <v>-366360.8073925155</v>
       </c>
       <c r="C6" t="n">
-        <v>223607.071822029</v>
+        <v>223607.0718220291</v>
       </c>
       <c r="D6" t="n">
         <v>223607.0718220291</v>
       </c>
       <c r="E6" t="n">
-        <v>-189638.5513141184</v>
+        <v>-190613.1425738398</v>
       </c>
       <c r="F6" t="n">
-        <v>335521.4851627778</v>
+        <v>334546.8939030562</v>
       </c>
       <c r="G6" t="n">
-        <v>335521.4851627778</v>
+        <v>334546.8939030563</v>
       </c>
       <c r="H6" t="n">
-        <v>335521.4851627778</v>
+        <v>334546.8939030563</v>
       </c>
       <c r="I6" t="n">
-        <v>335521.4851627779</v>
+        <v>334546.8939030562</v>
       </c>
       <c r="J6" t="n">
-        <v>159098.265970185</v>
+        <v>158123.6747104632</v>
       </c>
       <c r="K6" t="n">
-        <v>335521.4851627779</v>
+        <v>334546.8939030563</v>
       </c>
       <c r="L6" t="n">
-        <v>335521.485162778</v>
+        <v>334546.8939030563</v>
       </c>
       <c r="M6" t="n">
-        <v>200720.4699289407</v>
+        <v>199745.8786692193</v>
       </c>
       <c r="N6" t="n">
-        <v>335521.4851627779</v>
+        <v>334546.8939030562</v>
       </c>
       <c r="O6" t="n">
-        <v>335521.4851627779</v>
+        <v>334546.8939030564</v>
       </c>
       <c r="P6" t="n">
-        <v>335521.4851627779</v>
+        <v>334546.8939030564</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26755,16 +26755,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>116.7497573142985</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>248.6152092286077</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>165.3051017946056</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>62.02077879040148</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>112.9202716085203</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>116.2199130299139</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>128.0571403890125</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>49.00318754447486</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>80.34493109267297</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>53.30008710312342</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105.2976195790726</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>152.7829238717192</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35743,7 +35743,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35968,7 +35968,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>334.5577682773026</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1461613.739688126</v>
+        <v>1466553.002537157</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>237.9332843063845</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.52687838733165</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>293.9557741331911</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>69.4054865410212</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,13 +1071,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6.90848140332574</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>28.7112539870051</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,13 +1189,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>197.9240804051659</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>37.83808333974894</v>
       </c>
       <c r="C10" t="n">
-        <v>14.46389722690867</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>11.59610874633588</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>8.525532102719421</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.237938656055</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>61.28340218928904</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>26.97444673954876</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>27.71082088042269</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>148.7416974947217</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>27.26009267756244</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>216.3688193949613</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>60.54139430664161</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>190.6405752120378</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>174.7430637258771</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>118.4898845065119</v>
+        <v>139.4374166734251</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>5.562624396424693</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.62275566270739</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>110.6907158639456</v>
       </c>
       <c r="D43" t="n">
-        <v>118.4898845065121</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>50.1630188544056</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4312,16 +4312,16 @@
         <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,19 +4412,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>713.4553696737762</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>544.5191867458693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1993.546461473041</v>
+        <v>1661.975310878425</v>
       </c>
       <c r="C5" t="n">
-        <v>1993.546461473041</v>
+        <v>1293.012793938013</v>
       </c>
       <c r="D5" t="n">
-        <v>1635.28076286629</v>
+        <v>934.7470953312629</v>
       </c>
       <c r="E5" t="n">
-        <v>1249.492510268046</v>
+        <v>548.9588427330186</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>542.0133419838152</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>124.049533882002</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.546461473041</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.546461473041</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.546461473041</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y5" t="n">
-        <v>1993.546461473041</v>
+        <v>2048.575150942547</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4652,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4704,28 +4704,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>580.2158906240413</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>433.3259431261309</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>264.3261428644633</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>106.5777702969935</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1606.946621408919</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>879.7184058617568</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>493.9301532635125</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>82.94424847390496</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
@@ -4819,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4837,19 +4837,19 @@
         <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2047.384933294377</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>1716.322045950807</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W8" t="n">
-        <v>1363.553390680693</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X8" t="n">
-        <v>1363.553390680693</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.553390680693</v>
+        <v>1993.546461473041</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,10 +4886,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064346</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C10" t="n">
-        <v>713.5189870075369</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D10" t="n">
-        <v>563.4023475952011</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148976</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5053,40 +5053,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.8287400488913</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="C13" t="n">
-        <v>105.8287400488913</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="D13" t="n">
-        <v>105.8287400488913</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="E13" t="n">
-        <v>105.8287400488913</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F13" t="n">
-        <v>105.8287400488913</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273993</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W13" t="n">
-        <v>554.6108700904388</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X13" t="n">
-        <v>326.6213191924214</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y13" t="n">
-        <v>105.8287400488913</v>
+        <v>665.6859735286137</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5302,25 +5302,25 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920733</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>646.6490309742562</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>477.7128480463493</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>477.7128480463493</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>477.7128480463493</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>477.7128480463493</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>309.5375263661699</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>159.1195179141132</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1379.229518531123</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>874.6385818722736</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>646.6490309742562</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>646.6490309742562</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5612,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1471.669354659368</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1271.749344574921</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>216.9038434870655</v>
       </c>
     </row>
     <row r="20">
@@ -5731,22 +5731,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,13 +5755,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5779,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>294.1440025502359</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C22" t="n">
-        <v>125.207819622329</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1348.672131674345</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1059.543492887903</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609664</v>
+        <v>1059.543492887903</v>
       </c>
       <c r="W22" t="n">
-        <v>696.5850465240057</v>
+        <v>770.1263228509424</v>
       </c>
       <c r="X22" t="n">
-        <v>696.5850465240057</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y22" t="n">
-        <v>475.7924673804756</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="23">
@@ -5977,25 +5977,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>395.2468244550147</v>
+        <v>124.7525386093388</v>
       </c>
       <c r="C25" t="n">
-        <v>395.2468244550147</v>
+        <v>124.7525386093388</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>124.7525386093388</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>124.7525386093388</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>124.7525386093388</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1280.361907532689</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>1025.677419326802</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W25" t="n">
-        <v>1025.677419326802</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X25" t="n">
-        <v>797.6878684287846</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="Y25" t="n">
-        <v>576.8952892852544</v>
+        <v>306.4010034395785</v>
       </c>
     </row>
     <row r="26">
@@ -6223,22 +6223,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6247,10 +6247,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>245.130185042679</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1306.350032969985</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>1017.221394183544</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V28" t="n">
-        <v>762.5369059776569</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W28" t="n">
-        <v>473.1197359406963</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X28" t="n">
-        <v>245.130185042679</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y28" t="n">
-        <v>245.130185042679</v>
+        <v>420.3226148324574</v>
       </c>
     </row>
     <row r="29">
@@ -6463,13 +6463,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>437.6964226305959</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,43 +6688,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1322.408125380249</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1098.622710169755</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>809.4940713833126</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>554.8095831774258</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>265.3924131404652</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6961,13 +6961,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,16 +7004,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1379.229518531123</v>
+        <v>1358.0703951302</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>1358.0703951302</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1068.941756343758</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>814.2572681378715</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>524.8400981009108</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,25 +7174,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>102.8359039819269</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C40" t="n">
-        <v>102.8359039819269</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="D40" t="n">
-        <v>102.8359039819269</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="E40" t="n">
-        <v>102.8359039819269</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="F40" t="n">
-        <v>102.8359039819269</v>
+        <v>349.8598431027959</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>181.6845214226165</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>874.9271131227918</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>620.2426249169049</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>330.8254548799443</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>102.8359039819269</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y40" t="n">
-        <v>102.8359039819269</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,34 +7429,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>216.9038434870658</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C43" t="n">
-        <v>216.9038434870658</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028587</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>437.6964226305959</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.9038434870658</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>294.7767549727473</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>294.7767549727473</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>147.886807474837</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451758</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>145.2351313103787</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>91.23759968302164</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10360,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>137.0193642718765</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>157.9680363606582</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>49.13584327498292</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>61.34209567542541</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>82.98990566424403</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>120.9046521377897</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24180,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>72.80586356366754</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,16 +24369,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>139.2334757858151</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>69.86853300361605</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>105.952174156736</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>30.90698584635149</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>26.93116351641913</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24891,7 +24891,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>23.17774625772614</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>79.43092547709136</v>
+        <v>58.48339331017814</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.9309440669529</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>65.29107270482874</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>56.55610523468225</v>
       </c>
       <c r="D43" t="n">
-        <v>30.12558851170027</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25842,7 +25842,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>116.330549608972</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799108</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983655</v>
       </c>
       <c r="G2" t="n">
+        <v>449683.4186983651</v>
+      </c>
+      <c r="H2" t="n">
+        <v>449683.4186983651</v>
+      </c>
+      <c r="I2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>449683.4186983653</v>
-      </c>
-      <c r="I2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="J2" t="n">
-        <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983655</v>
       </c>
       <c r="M2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983652</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26447,16 +26447,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340948</v>
-      </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-366360.8073925155</v>
       </c>
       <c r="C6" t="n">
-        <v>223607.0718220291</v>
+        <v>223607.0718220292</v>
       </c>
       <c r="D6" t="n">
         <v>223607.0718220291</v>
       </c>
       <c r="E6" t="n">
-        <v>-190613.1425738398</v>
+        <v>-189736.0104400906</v>
       </c>
       <c r="F6" t="n">
-        <v>334546.8939030562</v>
+        <v>335424.0260368059</v>
       </c>
       <c r="G6" t="n">
-        <v>334546.8939030563</v>
+        <v>335424.0260368061</v>
       </c>
       <c r="H6" t="n">
-        <v>334546.8939030563</v>
+        <v>335424.0260368056</v>
       </c>
       <c r="I6" t="n">
-        <v>334546.8939030562</v>
+        <v>335424.0260368055</v>
       </c>
       <c r="J6" t="n">
-        <v>158123.6747104632</v>
+        <v>159000.8068442127</v>
       </c>
       <c r="K6" t="n">
-        <v>334546.8939030563</v>
+        <v>335424.0260368058</v>
       </c>
       <c r="L6" t="n">
-        <v>334546.8939030563</v>
+        <v>335424.0260368059</v>
       </c>
       <c r="M6" t="n">
-        <v>199745.8786692193</v>
+        <v>200623.0108029685</v>
       </c>
       <c r="N6" t="n">
-        <v>334546.8939030562</v>
+        <v>335424.0260368056</v>
       </c>
       <c r="O6" t="n">
-        <v>334546.8939030564</v>
+        <v>335424.0260368058</v>
       </c>
       <c r="P6" t="n">
-        <v>334546.8939030564</v>
+        <v>335424.0260368056</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,16 +26792,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>116.7497573142985</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>85.98948845797264</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.3051017946056</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>112.9202716085203</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>254.5172862233359</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>128.0571403890125</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>385.0729160337899</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,13 +27909,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>53.30008710312342</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>141.9938968421883</v>
       </c>
       <c r="C10" t="n">
-        <v>152.7829238717192</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32405,10 +32405,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32557,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32566,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32645,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35020,13 +35020,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355125</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>427.598833551487</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>401.6619767334878</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
